--- a/Data/Bois.xlsx
+++ b/Data/Bois.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -27,9 +27,6 @@
     <t>prix</t>
   </si>
   <si>
-    <t>peuplier</t>
-  </si>
-  <si>
     <t>sapin</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>hetre</t>
+  </si>
+  <si>
+    <t>tutu</t>
+  </si>
+  <si>
+    <t>Balsa</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,79 +411,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>390</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>980</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>750</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1060</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
